--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.042821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.042821.xlsx_with_dialog_acts.xlsx
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3287,12 +3287,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3899,12 +3899,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4355,12 +4355,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5723,12 +5723,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5799,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6601,12 +6601,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7479,12 +7479,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7821,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8585,12 +8585,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9881,12 +9881,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10071,12 +10071,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10451,12 +10451,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11823,12 +11823,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12435,12 +12435,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12891,12 +12891,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12967,12 +12967,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13727,12 +13727,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14149,12 +14149,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14377,12 +14377,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14415,12 +14415,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14453,12 +14453,12 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
